--- a/PANAMBI.xlsx
+++ b/PANAMBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A03A8657-9C65-4685-B678-6B2A27CE5BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD6A304-98EF-423C-907F-1F49605255C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,20 +21,7 @@
     <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
     <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1086,7 +1073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1146,36 +1133,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,14 +1177,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,7 +1225,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{43C2411B-6974-46CE-A658-8324DC5313FD}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A615C7B7-23C1-4194-B5E1-E2E3185B540F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1297,10 +1255,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFD905F-CEB2-421B-B200-A42AFAE3AB60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6E972D-08B2-4F36-917A-B4DCF29FD84B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1296,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28903393-8EAF-4E14-A125-F7E87B699A2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5283D8CA-3F07-4DB5-8039-8B3FC32CD894}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1359,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A36292D6-9CE1-4E6B-ABA3-68160AA0AE63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F43349-E3EA-4152-B841-E6261E4BF13B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1378,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{273969AB-1F82-3341-C5C4-F211E8E616EF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEA18FE-B997-9E75-824B-7C6BA38AF009}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1469,7 +1427,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F06A827-14ED-C1AF-FCED-8328EB74B11C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A05469-D59D-809F-A39F-F672354AAE88}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1488,7 +1446,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0184563-1F70-9971-9132-22139CD43C02}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FD0C40-E0D9-0095-92F4-199CED0AA7A7}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1519,7 +1477,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB685CD-19D7-A674-2D02-0720CC35D242}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE847586-4833-A095-91FF-029E4C9D340F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1550,7 +1508,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6818822-2FCA-8936-9CC0-99798AF1C4CD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED115622-7CD2-C88F-BD63-2ED160F59562}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1593,7 +1551,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F871B3B-7D47-404E-8B7F-C168F7886B79}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38150AD1-E5BE-4F0A-A9CA-B54BFB338F46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1589,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483FC967-AE31-4B13-B196-CDDA5C12F564}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0826C02-5278-437F-9D85-D4E76A666F48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1674,7 +1632,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC67147B-B858-499E-A271-FF08BFDC1AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48979B-BAF2-411A-9C52-7C99469FD956}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60A39E2-5E58-4FEB-A261-C08D777C82B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EED6AD3-C3DB-44AE-92C4-CE0EEB3FED5B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1999,98 +1957,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="37"/>
-    <col min="6" max="6" width="2" style="37" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="37" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="37"/>
+    <col min="1" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="2" style="34" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="36"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="36"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="36"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="36"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="36"/>
+      <c r="F8" s="33"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="36"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="36"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="36"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="36"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="36"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="36"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="36"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="36"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="36"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="36"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="36"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="36"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="36"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="36"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="36"/>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="36"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="36"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="36"/>
+      <c r="F26" s="33"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="36"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="36"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="36"/>
+      <c r="F29" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5452,19 +5410,19 @@
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="2" t="s">
         <v>278</v>
       </c>
     </row>
@@ -5487,46 +5445,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="19" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="19" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="19" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5551,54 +5509,55 @@
     <col min="6" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="14" width="13" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="9" max="12" width="13" customWidth="1"/>
+    <col min="13" max="13" width="42.140625" customWidth="1"/>
+    <col min="14" max="15" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="22" t="s">
         <v>291</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="20" t="s">
         <v>300</v>
       </c>
     </row>
@@ -5609,43 +5568,43 @@
       <c r="B2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="23">
         <v>45717</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="24">
         <v>2947</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="25">
         <v>9721</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="25">
         <v>1521</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="26" t="s">
         <v>304</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="O2" s="30" t="s">
+      <c r="O2" s="27" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5676,25 +5635,24 @@
       <c r="B1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E1" s="32">
-        <f>SUM(B2:B157)</f>
+      <c r="E1" s="29">
+        <v>15072</v>
+      </c>
+      <c r="F1" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="32">
         <v>36</v>
       </c>
-      <c r="F1" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="35">
-        <v>36</v>
-      </c>
-      <c r="C2" s="33">
+      <c r="C2" s="30">
         <v>2.3806374818145749E-3</v>
       </c>
     </row>

--- a/PANAMBI.xlsx
+++ b/PANAMBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAD6A304-98EF-423C-907F-1F49605255C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F23F3D-B26E-4B52-BC29-E7BCEA7F99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1225,7 +1225,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{A615C7B7-23C1-4194-B5E1-E2E3185B540F}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{AA95FE1E-90D3-48DC-A5FE-D73DAEA47EFC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1255,10 +1255,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC6E972D-08B2-4F36-917A-B4DCF29FD84B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB56A5A-3DE3-43DC-BA79-87909F6E4B82}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1296,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5283D8CA-3F07-4DB5-8039-8B3FC32CD894}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7232635C-430F-4B98-A467-1ADB83A0290A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1359,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97F43349-E3EA-4152-B841-E6261E4BF13B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70342DA3-3051-464B-A205-D0337AD70BB0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1378,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEA18FE-B997-9E75-824B-7C6BA38AF009}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4D6048-9C36-7562-EEEE-0C4AED410A14}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1427,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A05469-D59D-809F-A39F-F672354AAE88}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738026AE-94C8-2F62-38B6-CDC3ABC5981F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92FD0C40-E0D9-0095-92F4-199CED0AA7A7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB375C8A-E3EA-1186-EA7A-8CEE9E417AD3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE847586-4833-A095-91FF-029E4C9D340F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33C0699-7B1D-B0A3-32A4-E6B9463F4849}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1508,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED115622-7CD2-C88F-BD63-2ED160F59562}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD3C75C-6FCA-DC75-E967-F24DA06AED63}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1551,7 +1551,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38150AD1-E5BE-4F0A-A9CA-B54BFB338F46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ACFF04-D5EC-4A97-9CCB-EDF7718937BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1589,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0826C02-5278-437F-9D85-D4E76A666F48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB7CDCE-4DC3-4CE1-BA83-8B5B7643ECF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1632,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A48979B-BAF2-411A-9C52-7C99469FD956}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893173FD-8D57-45C4-AC51-09355C3C526C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EED6AD3-C3DB-44AE-92C4-CE0EEB3FED5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD2F0F-72FC-4CBB-9BDF-E03A92386D5E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/PANAMBI.xlsx
+++ b/PANAMBI.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F23F3D-B26E-4B52-BC29-E7BCEA7F99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8F3C21-A5EC-4A0E-940D-95CF274ABFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="306">
   <si>
     <t>COMARCA</t>
   </si>
@@ -944,15 +943,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>PANAMBI</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1205,27 +1195,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{AA95FE1E-90D3-48DC-A5FE-D73DAEA47EFC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{18E29B47-9D41-49D3-A0A3-275E58A6A52B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1255,10 +1230,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB56A5A-3DE3-43DC-BA79-87909F6E4B82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A0C191-DCAA-4328-8A4D-78DDA7DC741D}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1296,7 +1271,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7232635C-430F-4B98-A467-1ADB83A0290A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28418222-7295-4BDB-B641-55D74D681A0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1359,7 +1334,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70342DA3-3051-464B-A205-D0337AD70BB0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B5D64B-6619-4E19-8755-72868A518B92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1353,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4D6048-9C36-7562-EEEE-0C4AED410A14}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC920B1-13E6-1A4F-23C3-92191001ACF7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1427,7 +1402,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738026AE-94C8-2F62-38B6-CDC3ABC5981F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E752C7-9816-9202-C021-73D7BA5867BD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1446,7 +1421,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB375C8A-E3EA-1186-EA7A-8CEE9E417AD3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032662F4-62DC-57AA-E696-C70356588F8C}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1452,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33C0699-7B1D-B0A3-32A4-E6B9463F4849}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B599408-B75B-2330-54A1-222E21B58986}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1508,7 +1483,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD3C75C-6FCA-DC75-E967-F24DA06AED63}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA84CEA7-D298-BAE8-B4C5-64403B9274B6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1551,7 +1526,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72ACFF04-D5EC-4A97-9CCB-EDF7718937BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B928DD-2C2D-4E73-A04F-2E9E58B1963C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1564,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB7CDCE-4DC3-4CE1-BA83-8B5B7643ECF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B518362-873F-4063-B91E-6C7871C136B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1607,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{893173FD-8D57-45C4-AC51-09355C3C526C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968384DB-71D2-45AF-A09D-95216CB13923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1920,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD2F0F-72FC-4CBB-9BDF-E03A92386D5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D57769-5114-4E4F-AF0C-60ED5DC8E40D}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1957,98 +1932,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5611,52 +5586,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="32">
-        <v>36</v>
-      </c>
-      <c r="C2" s="30">
-        <v>2.3806374818145749E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PANAMBI.xlsx
+++ b/PANAMBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8F3C21-A5EC-4A0E-940D-95CF274ABFCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DC198B8-8BB5-4F94-B54A-9393535326FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1200,7 +1200,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{18E29B47-9D41-49D3-A0A3-275E58A6A52B}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{74B39EF3-E24F-45BD-AE07-087A869BA485}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1230,10 +1230,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A0C191-DCAA-4328-8A4D-78DDA7DC741D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FD24DC0-F98A-4084-B4B7-FCFD3F30E15E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1271,7 +1271,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28418222-7295-4BDB-B641-55D74D681A0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D17726-91BB-4839-BCC7-9E2547D6B093}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1334,7 +1334,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46B5D64B-6619-4E19-8755-72868A518B92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EC467AC-FA95-49C5-BA5A-A92D64F18EF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC920B1-13E6-1A4F-23C3-92191001ACF7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F373783-2B67-5263-E4AA-40EA13BF4C81}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1402,7 +1402,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E752C7-9816-9202-C021-73D7BA5867BD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5832CD2C-9553-140B-C1FE-12086A4DBE10}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032662F4-62DC-57AA-E696-C70356588F8C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A833849-6FC8-2875-110E-E46E5B79FECB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1452,7 +1452,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B599408-B75B-2330-54A1-222E21B58986}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82F473E-2F1E-1A37-ECA8-424E6312A799}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA84CEA7-D298-BAE8-B4C5-64403B9274B6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA58413-3405-D0E1-E601-6385E7AFCA7A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1526,7 +1526,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16B928DD-2C2D-4E73-A04F-2E9E58B1963C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE374BB9-2F62-4CBD-AFED-730F05F501C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1564,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B518362-873F-4063-B91E-6C7871C136B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F737C47F-CEA7-48CF-837D-47A6CD58530E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,50 +1589,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{968384DB-71D2-45AF-A09D-95216CB13923}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1920,7 +1876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D57769-5114-4E4F-AF0C-60ED5DC8E40D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3203C7-2C6F-470B-A594-5855AFFCBDC6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
